--- a/target/test-classes/testData/Testdata.xlsx
+++ b/target/test-classes/testData/Testdata.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Akhil\Git\automationpractice\automationpractice_Repo\Hybrid_newFramework\src\test\resources\testData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Akhil\Git\JenkinsRepo\Jenkins_Repo\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5CE57C8-8520-4E43-BEC8-09098C8D9464}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8729FB75-6CC4-47F0-86B5-31BD044C8E08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="30">
   <si>
     <t>TC_name</t>
   </si>
@@ -106,6 +106,12 @@
   </si>
   <si>
     <t>2</t>
+  </si>
+  <si>
+    <t>jose</t>
+  </si>
+  <si>
+    <t>Josegeorge@1234</t>
   </si>
 </sst>
 </file>
@@ -146,12 +152,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -490,10 +497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -549,13 +556,16 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
+        <v>28</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
@@ -563,16 +573,25 @@
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
@@ -586,16 +605,16 @@
         <v>14</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H5" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -612,41 +631,15 @@
         <v>14</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" t="s">
-        <v>26</v>
-      </c>
-      <c r="I7" t="s">
         <v>25</v>
       </c>
     </row>

--- a/target/test-classes/testData/Testdata.xlsx
+++ b/target/test-classes/testData/Testdata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Akhil\Git\JenkinsRepo\Jenkins_Repo\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8729FB75-6CC4-47F0-86B5-31BD044C8E08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7132757-D752-47D9-A91F-F46A29D96DC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="32">
   <si>
     <t>TC_name</t>
   </si>
@@ -112,13 +112,19 @@
   </si>
   <si>
     <t>Josegeorge@1234</t>
+  </si>
+  <si>
+    <t>Ashwath</t>
+  </si>
+  <si>
+    <t>Aswa@1234</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,6 +136,14 @@
       <sz val="9.8000000000000007"/>
       <color theme="1"/>
       <name val="JetBrains Mono"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -152,13 +166,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -500,37 +515,40 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="8.7265625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="4" t="s">
         <v>18</v>
       </c>
     </row>
@@ -563,85 +581,16 @@
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" t="s">
-        <v>20</v>
-      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" t="s">
-        <v>25</v>
-      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6" t="s">
-        <v>25</v>
-      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -766,12 +715,251 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:XFD16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" t="s">
+        <v>26</v>
+      </c>
+      <c r="I14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E16" r:id="rId1" xr:uid="{C51353C4-2933-4F3F-8636-0C6B05E26BB3}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>